--- a/biology/Médecine/Larry_Mellon/Larry_Mellon.xlsx
+++ b/biology/Médecine/Larry_Mellon/Larry_Mellon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Larimer Mellon, dit Larry Mellon (Pittsburgh, 16 juin 1910 - 3 août 1989) est un philanthrope et médecin américain.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Larimer Mellon est l'héritier d'une riche famille (son père avait fait fortune dans le pétrole et son grand-oncle était le secrétaire au trésor Andrew Mellon), il étudia un an à l'université de Princeton, travailla dans l'entreprise familiale Mellon Financial et fit partie de l'OSS durant la Seconde Guerre mondiale.
-En 1947, il découvrit l'œuvre d’Albert Schweitzer, dont l’exemple et les conseils l’incitèrent à fonder lui aussi un hôpital dans le tiers-monde. Il s’inscrivit avec sa deuxième femme à l’université Tulane de La Nouvelle-Orléans pour devenir médecin : il obtint son diplôme en 1954, à 44 ans, tandis qu’elle devenait technicienne de laboratoire[1].
-Ils ouvrirent en 1956 l’hôpital Albert-Schweitzer Haïti à Deschapelles, en Haïti. L’hôpital dessert aujourd’hui une population régionale dans la vallée de l’Artibonite, qui compte plus de 200 000 personnes[2],[3].
+En 1947, il découvrit l'œuvre d’Albert Schweitzer, dont l’exemple et les conseils l’incitèrent à fonder lui aussi un hôpital dans le tiers-monde. Il s’inscrivit avec sa deuxième femme à l’université Tulane de La Nouvelle-Orléans pour devenir médecin : il obtint son diplôme en 1954, à 44 ans, tandis qu’elle devenait technicienne de laboratoire.
+Ils ouvrirent en 1956 l’hôpital Albert-Schweitzer Haïti à Deschapelles, en Haïti. L’hôpital dessert aujourd’hui une population régionale dans la vallée de l’Artibonite, qui compte plus de 200 000 personnes,.
 </t>
         </is>
       </c>
